--- a/src/main/resources/api_test_data_OauthSample.xlsx
+++ b/src/main/resources/api_test_data_OauthSample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SohamPatel\Documents\Code\apiautomationjava\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7A8795-D057-4F5F-93B6-E6BB062EFA72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9947E1-048A-40D0-A42A-2718A3A105F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>TestName</t>
   </si>
@@ -63,48 +63,28 @@
     <t>no</t>
   </si>
   <si>
-    <t>https://l350202-iflmap.hcisbp.ca1.hana.ondemand.com/http/evrdev/siteline</t>
-  </si>
-  <si>
     <t>OauthSample</t>
+  </si>
+  <si>
+    <t>GlobalVariableJsonorXMLPath</t>
+  </si>
+  <si>
+    <t>GlobalVariable</t>
+  </si>
+  <si>
+    <t>JsonorXML</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>https://xxx.xxx.com</t>
   </si>
   <si>
     <t>{
   "IncidentDetails": {
-    "Incident Number": "INC-2025-1057",                // INCNM
-    "SiteLine Incident Id": 9043,                       // SINCID
-    "Select Incident Type": "Fisrt Aid",                // INCTY (note typo "Fisrt" kept as in source)
-    "Loss Prevention Officer's Name": "Loss Prevention Officers Name", // T2LB8
-    "Loss Prevention Officer's Employee Id": "Loss Prevention Officer Id", // T2LB9
-    "Supervisor Name": "Supervisor Name",               // T2LB10
-    "Supervisor Name Employee Id": "SLS1058",           // T1LB21
-    "Employee Id": "SLS1131",                            // T1LB10
-    "Incident Location": 5,                              // T1LB5 (was "Warehouse A" string replaced by int 5)
-    "Incident Reported Date": "2025-09-10",                        // T1LB3
-    "Incident Reported Time": "21:11:00",                        // T1LB4
-    "Incident Date": "2025-09-08",                                 // T1LB1
-    "Incident Time": "22:11:00",                                 // T1LB2
-    "First Aid Case Number": "First Aid Case Number",   // T1LB6
-    "Province": "Province",                              // LATIT
-    "Safety/Injury Illness Status": "Safety/Injury Illness Status", // T1LB7
-    "Type of Injury": 10,                                // T1LB8 (was "Sprain" replaced with integer 10)
-    "Incident Address": "Incident Address",              // T1LB9
-    "Incident Description": "Incident Description",     // T1LB13
-    "Treatment Details": "Treatment Details",            // T1LB14
-    "Static or default field": 0                          // REBEH
-  },
-  "BodyPart": [
-    {
-      "SiteLine Body Part Id": 101,                      // SLBDI
-      "Body Part": "Occupational Claim (Mental Health) v1", // BDCL1
-      "Body Part deletion flag": "0"                      // ISDEL
-    },
-    {
-      "SiteLine Body Part Id": 104,                      // SLBDI
-      "Body Part": "Occupational Claim (Mental Health) v4", // BDCL1
-      "Body Part deletion flag": "0"                      // ISDEL
-    }
-  ]
+    "Incident Number": "23456"                      
+}
 }</t>
   </si>
 </sst>
@@ -452,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -469,7 +449,7 @@
     <col min="7" max="7" width="14.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,22 +474,31 @@
       <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F2">
         <v>200</v>
@@ -520,8 +509,17 @@
       <c r="H2" t="s">
         <v>11</v>
       </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="C3" s="3"/>
     </row>
